--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24515380857508</v>
+        <v>2.346035666666667</v>
       </c>
       <c r="H2">
-        <v>2.24515380857508</v>
+        <v>7.038107</v>
       </c>
       <c r="I2">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424448</v>
       </c>
       <c r="J2">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424447</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.005080725778</v>
+        <v>31.38723566666667</v>
       </c>
       <c r="N2">
-        <v>31.005080725778</v>
+        <v>94.16170700000001</v>
       </c>
       <c r="O2">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114094</v>
       </c>
       <c r="P2">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114095</v>
       </c>
       <c r="Q2">
-        <v>69.61117507665828</v>
+        <v>73.63557435207213</v>
       </c>
       <c r="R2">
-        <v>69.61117507665828</v>
+        <v>662.720169168649</v>
       </c>
       <c r="S2">
-        <v>0.1671689443719944</v>
+        <v>0.1611053181164631</v>
       </c>
       <c r="T2">
-        <v>0.1671689443719944</v>
+        <v>0.1611053181164631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24515380857508</v>
+        <v>2.346035666666667</v>
       </c>
       <c r="H3">
-        <v>2.24515380857508</v>
+        <v>7.038107</v>
       </c>
       <c r="I3">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424448</v>
       </c>
       <c r="J3">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424447</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.3232563065114</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N3">
-        <v>17.3232563065114</v>
+        <v>52.665751</v>
       </c>
       <c r="O3">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="P3">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="Q3">
-        <v>38.89337487348634</v>
+        <v>41.18524341926189</v>
       </c>
       <c r="R3">
-        <v>38.89337487348634</v>
+        <v>370.667190773357</v>
       </c>
       <c r="S3">
-        <v>0.09340115884417968</v>
+        <v>0.09010810061777483</v>
       </c>
       <c r="T3">
-        <v>0.09340115884417968</v>
+        <v>0.09010810061777481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24515380857508</v>
+        <v>2.346035666666667</v>
       </c>
       <c r="H4">
-        <v>2.24515380857508</v>
+        <v>7.038107</v>
       </c>
       <c r="I4">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424448</v>
       </c>
       <c r="J4">
-        <v>0.2983811908600247</v>
+        <v>0.2908248950424447</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.0128804673092</v>
+        <v>7.717279333333334</v>
       </c>
       <c r="N4">
-        <v>7.0128804673092</v>
+        <v>23.151838</v>
       </c>
       <c r="O4">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="P4">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="Q4">
-        <v>15.74499529026104</v>
+        <v>18.10501256562956</v>
       </c>
       <c r="R4">
-        <v>15.74499529026104</v>
+        <v>162.945113090666</v>
       </c>
       <c r="S4">
-        <v>0.03781108764385068</v>
+        <v>0.03961147630820688</v>
       </c>
       <c r="T4">
-        <v>0.03781108764385068</v>
+        <v>0.03961147630820688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.91435345008879</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H5">
-        <v>2.91435345008879</v>
+        <v>8.806376</v>
       </c>
       <c r="I5">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="J5">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.005080725778</v>
+        <v>31.38723566666667</v>
       </c>
       <c r="N5">
-        <v>31.005080725778</v>
+        <v>94.16170700000001</v>
       </c>
       <c r="O5">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114094</v>
       </c>
       <c r="P5">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114095</v>
       </c>
       <c r="Q5">
-        <v>90.35976398345257</v>
+        <v>92.13593296042579</v>
       </c>
       <c r="R5">
-        <v>90.35976398345257</v>
+        <v>829.2233966438321</v>
       </c>
       <c r="S5">
-        <v>0.216995997297586</v>
+        <v>0.2015817615351948</v>
       </c>
       <c r="T5">
-        <v>0.216995997297586</v>
+        <v>0.2015817615351949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.91435345008879</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H6">
-        <v>2.91435345008879</v>
+        <v>8.806376</v>
       </c>
       <c r="I6">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="J6">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.3232563065114</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N6">
-        <v>17.3232563065114</v>
+        <v>52.665751</v>
       </c>
       <c r="O6">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="P6">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="Q6">
-        <v>50.48609178365389</v>
+        <v>51.53271173648623</v>
       </c>
       <c r="R6">
-        <v>50.48609178365389</v>
+        <v>463.794405628376</v>
       </c>
       <c r="S6">
-        <v>0.1212406867093816</v>
+        <v>0.1127470518260034</v>
       </c>
       <c r="T6">
-        <v>0.1212406867093816</v>
+        <v>0.1127470518260034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.91435345008879</v>
+        <v>2.935458666666667</v>
       </c>
       <c r="H7">
-        <v>2.91435345008879</v>
+        <v>8.806376</v>
       </c>
       <c r="I7">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="J7">
-        <v>0.3873178976439088</v>
+        <v>0.3638923613841484</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.0128804673092</v>
+        <v>7.717279333333334</v>
       </c>
       <c r="N7">
-        <v>7.0128804673092</v>
+        <v>23.151838</v>
       </c>
       <c r="O7">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="P7">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="Q7">
-        <v>20.43801238496285</v>
+        <v>22.65375450212089</v>
       </c>
       <c r="R7">
-        <v>20.43801238496285</v>
+        <v>203.883790519088</v>
       </c>
       <c r="S7">
-        <v>0.04908121363694128</v>
+        <v>0.04956354802295016</v>
       </c>
       <c r="T7">
-        <v>0.04908121363694128</v>
+        <v>0.04956354802295016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.24578317728803</v>
+        <v>1.2753</v>
       </c>
       <c r="H8">
-        <v>1.24578317728803</v>
+        <v>3.8259</v>
       </c>
       <c r="I8">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="J8">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.005080725778</v>
+        <v>31.38723566666667</v>
       </c>
       <c r="N8">
-        <v>31.005080725778</v>
+        <v>94.16170700000001</v>
       </c>
       <c r="O8">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114094</v>
       </c>
       <c r="P8">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114095</v>
       </c>
       <c r="Q8">
-        <v>38.62560797863157</v>
+        <v>40.0281416457</v>
       </c>
       <c r="R8">
-        <v>38.62560797863157</v>
+        <v>360.2532748113</v>
       </c>
       <c r="S8">
-        <v>0.09275812546482151</v>
+        <v>0.08757650836819841</v>
       </c>
       <c r="T8">
-        <v>0.09275812546482151</v>
+        <v>0.08757650836819846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.24578317728803</v>
+        <v>1.2753</v>
       </c>
       <c r="H9">
-        <v>1.24578317728803</v>
+        <v>3.8259</v>
       </c>
       <c r="I9">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="J9">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.3232563065114</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N9">
-        <v>17.3232563065114</v>
+        <v>52.665751</v>
       </c>
       <c r="O9">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="P9">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="Q9">
-        <v>21.58102128250068</v>
+        <v>22.3882107501</v>
       </c>
       <c r="R9">
-        <v>21.58102128250068</v>
+        <v>201.4938967509</v>
       </c>
       <c r="S9">
-        <v>0.05182611186052069</v>
+        <v>0.04898257189803233</v>
       </c>
       <c r="T9">
-        <v>0.05182611186052069</v>
+        <v>0.04898257189803234</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.24578317728803</v>
+        <v>1.2753</v>
       </c>
       <c r="H10">
-        <v>1.24578317728803</v>
+        <v>3.8259</v>
       </c>
       <c r="I10">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="J10">
-        <v>0.1655647228144713</v>
+        <v>0.1580917945610786</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.0128804673092</v>
+        <v>7.717279333333334</v>
       </c>
       <c r="N10">
-        <v>7.0128804673092</v>
+        <v>23.151838</v>
       </c>
       <c r="O10">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="P10">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="Q10">
-        <v>8.73652851050562</v>
+        <v>9.8418463338</v>
       </c>
       <c r="R10">
-        <v>8.73652851050562</v>
+        <v>88.5766170042</v>
       </c>
       <c r="S10">
-        <v>0.02098048548912914</v>
+        <v>0.02153271429484785</v>
       </c>
       <c r="T10">
-        <v>0.02098048548912914</v>
+        <v>0.02153271429484785</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.478773625269042</v>
+        <v>0.839594</v>
       </c>
       <c r="H11">
-        <v>0.478773625269042</v>
+        <v>2.518782</v>
       </c>
       <c r="I11">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="J11">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.005080725778</v>
+        <v>31.38723566666667</v>
       </c>
       <c r="N11">
-        <v>31.005080725778</v>
+        <v>94.16170700000001</v>
       </c>
       <c r="O11">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114094</v>
       </c>
       <c r="P11">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114095</v>
       </c>
       <c r="Q11">
-        <v>14.84441490084003</v>
+        <v>26.35253474231934</v>
       </c>
       <c r="R11">
-        <v>14.84441490084003</v>
+        <v>237.172812680874</v>
       </c>
       <c r="S11">
-        <v>0.03564837349837277</v>
+        <v>0.05765601110867183</v>
       </c>
       <c r="T11">
-        <v>0.03564837349837277</v>
+        <v>0.05765601110867184</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.478773625269042</v>
+        <v>0.839594</v>
       </c>
       <c r="H12">
-        <v>0.478773625269042</v>
+        <v>2.518782</v>
       </c>
       <c r="I12">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="J12">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.3232563065114</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N12">
-        <v>17.3232563065114</v>
+        <v>52.665751</v>
       </c>
       <c r="O12">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="P12">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="Q12">
-        <v>8.293918223333257</v>
+        <v>14.73928284836467</v>
       </c>
       <c r="R12">
-        <v>8.293918223333257</v>
+        <v>132.653545635282</v>
       </c>
       <c r="S12">
-        <v>0.01991757146141293</v>
+        <v>0.03224768561919279</v>
       </c>
       <c r="T12">
-        <v>0.01991757146141293</v>
+        <v>0.03224768561919279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.478773625269042</v>
+        <v>0.839594</v>
       </c>
       <c r="H13">
-        <v>0.478773625269042</v>
+        <v>2.518782</v>
       </c>
       <c r="I13">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="J13">
-        <v>0.06362906804626198</v>
+        <v>0.1040797633205632</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.0128804673092</v>
+        <v>7.717279333333334</v>
       </c>
       <c r="N13">
-        <v>7.0128804673092</v>
+        <v>23.151838</v>
       </c>
       <c r="O13">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="P13">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="Q13">
-        <v>3.357582204912079</v>
+        <v>6.479381424590667</v>
       </c>
       <c r="R13">
-        <v>3.357582204912079</v>
+        <v>58.314432821316</v>
       </c>
       <c r="S13">
-        <v>0.008063123086476279</v>
+        <v>0.01417606659269857</v>
       </c>
       <c r="T13">
-        <v>0.008063123086476279</v>
+        <v>0.01417606659269857</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.640384118987295</v>
+        <v>0.6704439999999999</v>
       </c>
       <c r="H14">
-        <v>0.640384118987295</v>
+        <v>2.011332</v>
       </c>
       <c r="I14">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="J14">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.005080725778</v>
+        <v>31.38723566666667</v>
       </c>
       <c r="N14">
-        <v>31.005080725778</v>
+        <v>94.16170700000001</v>
       </c>
       <c r="O14">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114094</v>
       </c>
       <c r="P14">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114095</v>
       </c>
       <c r="Q14">
-        <v>19.85516130470731</v>
+        <v>21.04338382930267</v>
       </c>
       <c r="R14">
-        <v>19.85516130470731</v>
+        <v>189.390454463724</v>
       </c>
       <c r="S14">
-        <v>0.04768151596332641</v>
+        <v>0.04604026078288122</v>
       </c>
       <c r="T14">
-        <v>0.04768151596332641</v>
+        <v>0.04604026078288123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.640384118987295</v>
+        <v>0.6704439999999999</v>
       </c>
       <c r="H15">
-        <v>0.640384118987295</v>
+        <v>2.011332</v>
       </c>
       <c r="I15">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="J15">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.3232563065114</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N15">
-        <v>17.3232563065114</v>
+        <v>52.665751</v>
       </c>
       <c r="O15">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="P15">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="Q15">
-        <v>11.0935382278364</v>
+        <v>11.76981225448133</v>
       </c>
       <c r="R15">
-        <v>11.0935382278364</v>
+        <v>105.928310290332</v>
       </c>
       <c r="S15">
-        <v>0.02664076669953555</v>
+        <v>0.02575085974563192</v>
       </c>
       <c r="T15">
-        <v>0.02664076669953555</v>
+        <v>0.02575085974563192</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.640384118987295</v>
+        <v>0.6704439999999999</v>
       </c>
       <c r="H16">
-        <v>0.640384118987295</v>
+        <v>2.011332</v>
       </c>
       <c r="I16">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="J16">
-        <v>0.08510712063533309</v>
+        <v>0.08311118569176491</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.0128804673092</v>
+        <v>7.717279333333334</v>
       </c>
       <c r="N16">
-        <v>7.0128804673092</v>
+        <v>23.151838</v>
       </c>
       <c r="O16">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="P16">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="Q16">
-        <v>4.490937279621011</v>
+        <v>5.174003625357333</v>
       </c>
       <c r="R16">
-        <v>4.490937279621011</v>
+        <v>46.566032628216</v>
       </c>
       <c r="S16">
-        <v>0.01078483797247114</v>
+        <v>0.01132006516325176</v>
       </c>
       <c r="T16">
-        <v>0.01078483797247114</v>
+        <v>0.01132006516325176</v>
       </c>
     </row>
   </sheetData>
